--- a/cypress/fixtures/AnnexA5_Deactivation.xlsx
+++ b/cypress/fixtures/AnnexA5_Deactivation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joero\Documents\GitHub\cypress-cucumber-example\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F88056A7-6169-4CB5-8D7E-2C1B758D85B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873BFD9-AC49-4EF1-81F6-E481EE9DB873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>FULLY SUPPORTED</t>
   </si>
   <si>
-    <t>A123</t>
-  </si>
-  <si>
     <t>B234</t>
   </si>
   <si>
@@ -60,13 +57,16 @@
     <t>B234 200025901</t>
   </si>
   <si>
-    <t>A123 200017758</t>
-  </si>
-  <si>
     <t>BOLT</t>
   </si>
   <si>
     <t>NUT</t>
+  </si>
+  <si>
+    <t>W333</t>
+  </si>
+  <si>
+    <t>W333 200017758</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,16 +480,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -500,16 +500,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
